--- a/Mod/ModProject_Cave/ModProject/ModExcel/DungeonRoomBase.xlsx
+++ b/Mod/ModProject_Cave/ModProject/ModExcel/DungeonRoomBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonRoomBase" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>规模ID</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>冥山内界</t>
   </si>
   <si>
     <t>注释</t>
@@ -111,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -123,49 +126,140 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,97 +282,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -294,19 +297,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,43 +405,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,115 +477,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,15 +488,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -512,30 +506,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -547,17 +517,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,166 +544,205 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1063,13 +1066,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="5" width="10.2571428571429" customWidth="1"/>
     <col min="6" max="6" width="15.5333333333333" customWidth="1"/>
@@ -1156,19 +1159,19 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>42685182</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>100</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>50</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>10000</v>
       </c>
       <c r="F4" s="3">
@@ -1181,71 +1184,99 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customHeight="1"/>
+    <row r="5" s="1" customFormat="1" ht="13.5" spans="1:11">
+      <c r="A5" s="2">
+        <v>42685183</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>100</v>
+      </c>
+      <c r="D5" s="1">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="6" customHeight="1"/>
     <row r="7" customHeight="1"/>
     <row r="8" customHeight="1"/>
     <row r="9" customHeight="1" spans="1:8">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:8">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:8">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:8">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:8">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:1">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" customHeight="1"/>
